--- a/JustCC/data/testdata/data_info.xlsx
+++ b/JustCC/data/testdata/data_info.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,10 +511,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1001</v>
+        <v>1112</v>
       </c>
       <c r="B2" s="1">
-        <v>1001</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">

--- a/JustCC/data/testdata/data_info.xlsx
+++ b/JustCC/data/testdata/data_info.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_data" sheetId="1" r:id="rId1"/>
     <sheet name="user_data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/JustCC/data/testdata/data_info.xlsx
+++ b/JustCC/data/testdata/data_info.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login_data" sheetId="1" r:id="rId1"/>
     <sheet name="user_data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="trunk_data" sheetId="3" r:id="rId3"/>
+    <sheet name="exten_data" sheetId="4" r:id="rId4"/>
+    <sheet name="queue_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +72,46 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.18.191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunkname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_chans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extenname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,9 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,12 +536,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -535,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,12 +643,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>902</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JustCC/data/testdata/data_info.xlsx
+++ b/JustCC/data/testdata/data_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login_data" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="exten_data" sheetId="4" r:id="rId4"/>
     <sheet name="queue_data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22222222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>extenname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,26 @@
   </si>
   <si>
     <t>queueno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55559248</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +552,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,8 +576,8 @@
       <c r="A2" s="1">
         <v>1112</v>
       </c>
-      <c r="B2" s="1">
-        <v>1112</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -583,7 +599,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,45 +659,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -696,7 +718,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,18 +728,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2">
-        <v>101</v>
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -732,19 +754,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/JustCC/data/testdata/data_info.xlsx
+++ b/JustCC/data/testdata/data_info.xlsx
@@ -754,7 +754,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>901</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
